--- a/Задачи на 1 семестр/Задачи.xlsx
+++ b/Задачи на 1 семестр/Задачи.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manan\Downloads\Задачи на 1 семестр\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BAB9F-59A6-4D3D-9718-B789EBE7DFFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30293BA5-A1D9-479F-BDE9-3F7EEEAAE4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>Найти уравнение прямой, проходящей через две заданные пользователем точки координатной плоскости. Уравнение любой прямой имеет вид y = kx + b. Если известны две пары (x; y), то получают систему уравнений относительно коэффициентов k и b:</t>
   </si>
@@ -425,6 +425,35 @@
   </si>
   <si>
     <t xml:space="preserve">Пользователь вводит числа a и b. Сгенерировать случайные числа в интервале [a;b] и заполнить ими двумерный массив размером 10 на 10. В массиве необходимо найти максимальный и минимальный элемент. Заменить числа на главной диагонали на максимальный элемент, а числа на побочной - на минимальный. На место пересечения - сумму максимального и минимального. Вывести на экран. </t>
+  </si>
+  <si>
+    <t>Пользователь вводит через запятую целые числа, которыми будет заполнен массив.  Напишите функцию, которая принимает массив с разными числами, а возвращает максимальное произведение двух чисел из этого массива. Вывести результат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входные данные:
+[1, 3, 2, 2, 3, 0]
+Выходные данные:
+9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вводит строку. Напишите функцию, которая принимает строку, а возвращает ее перевернутый вариант (слова в обратном порядке). Напечатать полученную строку на экране. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входные данные:
+“general purpose programming language” 
+Выходные данные:
+“language programming purpose general”
+</t>
+  </si>
+  <si>
+    <t>На вход подается число N. Вывести на экран треугольник из символов ’*’ из N линий.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вводит числа, которыми будет заполнен массив. Реализовать функцию сортировки массива. Вывести на экран отсортированный массив. </t>
+  </si>
+  <si>
+    <t>На вход подается одномерный массив целых чисел. Необходимо отсортировать массив (можно методом пузырька) и вывести его на экран. В отсортированном массиве найти медиану (отметка, делящая ранжированные данные, либо число по середине ранжированного списка либо среднее арифметическое из двух по середине), моду (наиболее часто встречающееся значение в данных), среднее, максимум, минимум, размах (разность между наибольшим и наименьшим).</t>
   </si>
 </sst>
 </file>
@@ -520,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,6 +561,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB57B17-6A15-45A5-8FFE-C15181C6CFB2}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,33 +1319,47 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>

--- a/Задачи на 1 семестр/Задачи.xlsx
+++ b/Задачи на 1 семестр/Задачи.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manan\Downloads\Задачи на 1 семестр\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/233ff03b8280f316/Рабочий стол/Practice-dev/Задачи на 1 семестр/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30293BA5-A1D9-479F-BDE9-3F7EEEAAE4A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{30293BA5-A1D9-479F-BDE9-3F7EEEAAE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBABF64-02E3-49F3-8B8D-AB8F923494F7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{08E66B02-90A5-4DBE-B310-89731172CFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>Найти уравнение прямой, проходящей через две заданные пользователем точки координатной плоскости. Уравнение любой прямой имеет вид y = kx + b. Если известны две пары (x; y), то получают систему уравнений относительно коэффициентов k и b:</t>
   </si>
@@ -111,13 +111,7 @@
     <t>Дан текст, который пользователь должен ввести в программу, найти наибольшее количество идущих подряд букв. </t>
   </si>
   <si>
-    <t>Результаты соревнований по прыжкам в длину представлены в виде матрицы 5х3 (5 спортсменов по 3 попытки у каждого). Указать, какой спортсмен и в какой попытке показал наилучший результат.</t>
-  </si>
-  <si>
     <t>Дана строка символов. Признак конца строки — символ 'n' (переход на новую строку). Строка состоит из слов, которые отделены друг от друга пробелами. Вывести самое длинное слово и его порядковый номер.</t>
-  </si>
-  <si>
-    <t>Организовать ввод строки, каждое слово в строке отделяется от других слов пробелами, их может быть неограниченное количество. Найти самое короткое слово в строке.</t>
   </si>
   <si>
     <t>есть файл в котором записан некоторый текст на английском языке. Требуется вывести в алфавитном порядке все буквы которые встречаются в файле. Каждую букву выводить только один раз.</t>
@@ -409,9 +403,6 @@
     <t>Пользователь вводит строку символов. Признак конца строки — символ '\n' (переход на новую строку). Строка состоит из слов, которые отделены друг от друга пробелами. Вывести самое длинное слово и его порядковый номер.</t>
   </si>
   <si>
-    <t>Пользователь вводит слова до тех пор, пока не будет введен символ "*". Найти самое короткое слово в строке.</t>
-  </si>
-  <si>
     <t>Дан файл, в котором записан некоторый текст на английском языке. Требуется вывести в алфавитном порядке все буквы, которые встречаются в файле и их количество.</t>
   </si>
   <si>
@@ -424,36 +415,161 @@
     <t xml:space="preserve">Задача на динамическое выделение памяти. Изначально есть указатель на массив с одним элементом. Пользователь вводит число. Если оно больше 0 записываем его в массив. Далее пользователь вводит второе число. Если оно больше 0, надо перевыделить память для 2-х элементов массива и записать в массив второе число. И так далее…  для 3-х элементов, для 4-х…  пока пользователь не введет отрицательное число. Вывести сумму введенных элементов и размер массива.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Пользователь вводит числа a и b. Сгенерировать случайные числа в интервале [a;b] и заполнить ими двумерный массив размером 10 на 10. В массиве необходимо найти максимальный и минимальный элемент. Заменить числа на главной диагонали на максимальный элемент, а числа на побочной - на минимальный. На место пересечения - сумму максимального и минимального. Вывести на экран. </t>
-  </si>
-  <si>
     <t>Пользователь вводит через запятую целые числа, которыми будет заполнен массив.  Напишите функцию, которая принимает массив с разными числами, а возвращает максимальное произведение двух чисел из этого массива. Вывести результат.</t>
   </si>
   <si>
+    <t xml:space="preserve">Пользователь вводит строку. Напишите функцию, которая принимает строку, а возвращает ее перевернутый вариант (слова в обратном порядке). Напечатать полученную строку на экране. </t>
+  </si>
+  <si>
+    <t>На вход подается число N. Вывести на экран треугольник из символов ’*’ из N линий.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вводит числа, которыми будет заполнен массив. Реализовать функцию сортировки массива. Вывести на экран отсортированный массив. </t>
+  </si>
+  <si>
+    <t>На вход подается одномерный массив целых чисел. Необходимо отсортировать массив (можно методом пузырька) и вывести его на экран. В отсортированном массиве найти медиану (отметка, делящая ранжированные данные, либо число по середине ранжированного списка либо среднее арифметическое из двух по середине), моду (наиболее часто встречающееся значение в данных), среднее, максимум, минимум, размах (разность между наибольшим и наименьшим).</t>
+  </si>
+  <si>
+    <t>В файле:
+{{{}{}}{
+Выходные данные:
+0</t>
+  </si>
+  <si>
+    <t>Входные данные:
+4 5 3 2 1 -1
+Выходные данные:
+15 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь вводит числа a и b. Сгенерировать случайные числа в интервале [a;b] и заполнить ими двумерный массив размером 6 на 6. В массиве необходимо найти максимальный и минимальный элемент. Заменить числа на главной диагонали на максимальный элемент, а числа на побочной - на минимальный. На место пересечения - сумму максимального и минимального. Вывести на экран. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Входные данные:
-[1, 3, 2, 2, 3, 0]
+-9 9
+Выходные данные:
+8 5 6 -2  4 -7
+3 8 -1 3 -7 2
+1 6 8 -7 1 0
+2 3 -7 8 2 -3
+1 -7 0 -1 8 2
+-7 2 3 -2 4 8
+</t>
+  </si>
+  <si>
+    <t>Входные данные:
+abcdsfabcerdabc
+abc
+Выходные данные:
+3</t>
+  </si>
+  <si>
+    <t>Входные данные:
+7
+1 2 6 9 -1 0 3
+Выходные данные:
+1 9 -1 3</t>
+  </si>
+  <si>
+    <t>Входные данные:
+aaabbbbdfdas22ewiiiia
+Выходные данные:
+4</t>
+  </si>
+  <si>
+    <t>Входные данные:
+A long time ago in a galaxy far far away\n
+Выходные данные:
+galaxy
+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входные данные:
+1, 3, 2, 2, 3, 0
 Выходные данные:
 9
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Пользователь вводит строку. Напишите функцию, которая принимает строку, а возвращает ее перевернутый вариант (слова в обратном порядке). Напечатать полученную строку на экране. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Входные данные:
-“general purpose programming language” 
+general purpose programming language 
 Выходные данные:
-“language programming purpose general”
+language programming purpose general
 </t>
   </si>
   <si>
-    <t>На вход подается число N. Вывести на экран треугольник из символов ’*’ из N линий.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пользователь вводит числа, которыми будет заполнен массив. Реализовать функцию сортировки массива. Вывести на экран отсортированный массив. </t>
-  </si>
-  <si>
-    <t>На вход подается одномерный массив целых чисел. Необходимо отсортировать массив (можно методом пузырька) и вывести его на экран. В отсортированном массиве найти медиану (отметка, делящая ранжированные данные, либо число по середине ранжированного списка либо среднее арифметическое из двух по середине), моду (наиболее часто встречающееся значение в данных), среднее, максимум, минимум, размах (разность между наибольшим и наименьшим).</t>
+    <t>Входные данные:
+5
+Выходные данные:
+        *
+      ***
+    *****
+  *******
+*********</t>
+  </si>
+  <si>
+    <t>Входные данные:
+4 0 2 -1  5 -6 12 4
+Выходные данные:
+-6 -1 0 2 4 4 5 12</t>
+  </si>
+  <si>
+    <t>Входные данные:
+5 3 -2 6 -9 2 0 4 8 -2
+Выходные данные:
+-9  -2 -2  0 2 3 4 5 6 8
+2.5
+-2
+1.5
+8
+-9
+17</t>
+  </si>
+  <si>
+    <t>C, сложность E, 1 семестр, работа с файлами, строки, массивы</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, массивы</t>
+  </si>
+  <si>
+    <t>C, сложность E, 1 семестр, массивы, циклы, генерация значений</t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, строки</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, строки, циклы</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, стрики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входные данные:
+input.txt
+Выходные данные:
+a - 5
+b - 4 
+c - 1
+...
+</t>
+  </si>
+  <si>
+    <t>C, сложность E, 1 семестр, работа с файлами, массивы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С, сложность F, 1 семестр, массивы </t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, строки</t>
+  </si>
+  <si>
+    <t>С, сложность F, 1 семестр, циклы</t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, массивы, циклы</t>
+  </si>
+  <si>
+    <t>С, сложность E, 1 семестр, массивы</t>
   </si>
 </sst>
 </file>
@@ -883,617 +999,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB57B17-6A15-45A5-8FFE-C15181C6CFB2}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="64.7265625" customWidth="1"/>
+    <col min="2" max="2" width="74.7265625" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="77.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="131.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="76" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="148" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
